--- a/CreateScripts/Darrian/Records/PAYMENT.xlsx
+++ b/CreateScripts/Darrian/Records/PAYMENT.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_DBC3854354B3B563F7BC11B8F1F3ABCC2C73F02E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3DADB2CC-9AF8-463D-B9F3-71BCDE7E42F6}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FD90D-E300-48A9-AE54-C74435B40C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="6240" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,24 +387,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4878.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>131.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1623.75</v>
       </c>
     </row>
   </sheetData>
@@ -409,21 +453,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9496591E87E6B43B723AE20E6EEE6F2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5abb67ef7e345ce9725832975159a551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351fd5e3-c834-48b3-88b8-b9d0689c8e02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fce2e76832725649a8fa2a9f44068ce" ns2:_="">
     <xsd:import namespace="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
@@ -555,14 +584,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C50A716-7394-4E87-96D6-4B5CDE03E1FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D076F2D-50AC-4C1E-B643-EBC96A96FF28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D3D268-4A55-4AF1-99CA-A76E2BE3D377}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D3D268-4A55-4AF1-99CA-A76E2BE3D377}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D076F2D-50AC-4C1E-B643-EBC96A96FF28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C50A716-7394-4E87-96D6-4B5CDE03E1FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>